--- a/data/ECC_Erie_P_loading/total-p-loading-lake-erie-2008-2020_calculation.xlsx
+++ b/data/ECC_Erie_P_loading/total-p-loading-lake-erie-2008-2020_calculation.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/ECC_Erie_P_loading/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42FCA07D-2E64-4A2C-91F8-5D56572CFFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{42FCA07D-2E64-4A2C-91F8-5D56572CFFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3C67D3-E289-4539-B1D2-8BD398874636}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total-p-loading-lake-erie-2008-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Total estimated phosphorus loading to Lake Erie, 2008 to 2020</t>
   </si>
@@ -71,12 +84,15 @@
   </si>
   <si>
     <t>SRP based proportion average</t>
+  </si>
+  <si>
+    <t>SRP as 33% of total P load (Maccoux et al. 2016)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -910,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1247,6 +1263,9 @@
       <c r="D14">
         <v>11661</v>
       </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" t="s">
         <v>16</v>
       </c>
@@ -1292,6 +1311,10 @@
       </c>
       <c r="D16">
         <v>9336</v>
+      </c>
+      <c r="I16">
+        <f>(3030+674.615)+((3030+ 674.615)*49/100)</f>
+        <v>5519.8763499999995</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">

--- a/data/ECC_Erie_P_loading/total-p-loading-lake-erie-2008-2020_calculation.xlsx
+++ b/data/ECC_Erie_P_loading/total-p-loading-lake-erie-2008-2020_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/LakeErie_animal-excretion/data/ECC_Erie_P_loading/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{42FCA07D-2E64-4A2C-91F8-5D56572CFFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B3C67D3-E289-4539-B1D2-8BD398874636}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{42FCA07D-2E64-4A2C-91F8-5D56572CFFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{549AFD93-E5D9-4AD8-9B43-C06ABB9F3E9B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Total estimated phosphorus loading to Lake Erie, 2008 to 2020</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>SRP as 33% of total P load (Maccoux et al. 2016)</t>
+  </si>
+  <si>
+    <t>TP in western basin as 60% from Maccoux</t>
+  </si>
+  <si>
+    <t>SRP in western basin as 26% from Maccoux</t>
   </si>
 </sst>
 </file>
@@ -631,9 +637,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,7 +677,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -777,7 +783,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -919,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,20 +933,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -978,7 +984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>2337.7339999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>8623</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>5839</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>11946</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>8701</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>9092</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -1213,8 +1219,12 @@
       <c r="D11">
         <v>6800</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q11">
+        <f>0.6*D9</f>
+        <v>5180.3999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -1236,7 +1246,7 @@
         <v>0.32701588625521316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>10789</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1269,8 +1279,14 @@
       <c r="I14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -1298,8 +1314,16 @@
       <c r="I15">
         <v>4577</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <f>0.6*D15</f>
+        <v>8126.4</v>
+      </c>
+      <c r="L15">
+        <f>0.27*K15</f>
+        <v>2194.1280000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2020</v>
       </c>
